--- a/data/CommonData.xlsx
+++ b/data/CommonData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="828" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="828"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
@@ -1114,8 +1114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1170,7 +1170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:Z2"/>
     </sheetView>
   </sheetViews>
@@ -1374,7 +1374,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
